--- a/data/trans_bre/CONS_TIR-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_TIR-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,36</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>315,53%</t>
+          <t>268,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>359,02%</t>
+          <t>314,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>356,69%</t>
+          <t>334,1%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,62; 9,85</t>
+          <t>3,35; 8,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,16; 11,09</t>
+          <t>5,09; 13,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 6,73</t>
+          <t>4,61; 9,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>133,51; 746,28</t>
+          <t>84,45; 641,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>166,67; 722,08</t>
+          <t>100,88; 1023,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>132,69; 781,75</t>
+          <t>144,63; 768,64</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,12</t>
+          <t>20,01</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>370,63%</t>
+          <t>441,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>909,58%</t>
+          <t>1538,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>389,6%</t>
+          <t>345,78%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 7,02</t>
+          <t>4,84; 7,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,24; 27,07</t>
+          <t>5,7; 46,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,71; 6,83</t>
+          <t>3,61; 6,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>201,37; 616,18</t>
+          <t>259,34; 729,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>445,86; 2719,67</t>
+          <t>345,52; 6124,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>249,14; 576,42</t>
+          <t>176,84; 631,76</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>110,28%</t>
+          <t>865,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>469,41%</t>
+          <t>596,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>685,86%</t>
+          <t>111,27%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 4,28</t>
+          <t>4,11; 7,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,15; 7,81</t>
+          <t>4,57; 8,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,64</t>
+          <t>0,35; 4,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,83; 281,52</t>
+          <t>313,81; 2103,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>184,05; 1210,58</t>
+          <t>218,01; 1495,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>265,63; 1575,25</t>
+          <t>1,62; 287,13</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,61</t>
+          <t>15,29</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>285,76%</t>
+          <t>447,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>681,79%</t>
+          <t>1098,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>408,28%</t>
+          <t>272,86%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 6,37</t>
+          <t>5,02; 6,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,67; 19,31</t>
+          <t>6,42; 38,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,55; 6,12</t>
+          <t>3,72; 5,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>185,25; 435,87</t>
+          <t>282,13; 646,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>412,53; 1554,1</t>
+          <t>403,27; 3891,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>283,87; 563,51</t>
+          <t>172,12; 414,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_TIR-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_TIR-Estudios-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>268,07%</t>
+          <t>189,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 8,5</t>
+          <t>2,54; 7,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 13,34</t>
+          <t>4,68; 12,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>84,45; 641,46</t>
+          <t>48,71; 525,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>100,88; 1023,91</t>
+          <t>81,97; 989,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,15</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>441,51%</t>
+          <t>412,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,84; 7,38</t>
+          <t>4,25; 6,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,7; 46,67</t>
+          <t>5,88; 51,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>259,34; 729,99</t>
+          <t>250,87; 679,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>345,52; 6124,6</t>
+          <t>385,87; 8304,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>865,41%</t>
+          <t>595,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,11; 7,27</t>
+          <t>3,53; 6,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 8,89</t>
+          <t>4,28; 8,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>313,81; 2103,78</t>
+          <t>226,74; 1560,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>218,01; 1495,81</t>
+          <t>206,22; 1574,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,96</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>447,76%</t>
+          <t>389,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 6,87</t>
+          <t>4,48; 6,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,42; 38,73</t>
+          <t>6,5; 38,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>282,13; 646,74</t>
+          <t>261,28; 588,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>403,27; 3891,39</t>
+          <t>439,66; 4409,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_TIR-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_TIR-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6,81</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7,08</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>5,34</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,05</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,08</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>276,33%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>334,1%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>189,1%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>314,28%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>334,1%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>3,78; 9,88</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4,61; 9,87</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>2,54; 7,92</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,68; 12,54</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,61; 9,87</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>72,42; 794,63</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>144,63; 768,64</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>48,71; 525,36</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>81,97; 989,37</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>144,63; 768,64</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>6,93</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5,08</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>5,33</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>20,01</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,08</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>496,68%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>345,78%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>412,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1538,7%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>345,78%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>5,51; 8,52</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3,61; 6,6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>4,25; 6,45</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>5,88; 51,83</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,61; 6,6</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>234,87; 1026,53</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>176,84; 631,76</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>250,87; 679,64</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>385,87; 8304,16</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>176,84; 631,76</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>6,33</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,34</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>5,09</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,51</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,34</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>484,42%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>111,27%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>595,53%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>596,28%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>111,27%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>4,21; 8,6</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 4,22</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>3,53; 6,65</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>4,28; 8,7</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,35; 4,22</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>172,36; 1151,39</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1,62; 287,13</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>226,74; 1560,79</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>206,22; 1574,45</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,62; 287,13</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6,85</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4,72</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>5,3</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>15,29</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,72</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>454,8%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>272,86%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>389,24%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1098,47%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>272,86%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>5,67; 8,08</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3,72; 5,77</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>4,48; 6,22</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>6,5; 38,78</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,72; 5,77</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>263,91; 758,11</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>172,12; 414,69</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>261,28; 588,12</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>439,66; 4409,08</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>172,12; 414,69</t>
         </is>
       </c>
     </row>
